--- a/biology/Zoologie/Hansenochrus_surinamensis/Hansenochrus_surinamensis.xlsx
+++ b/biology/Zoologie/Hansenochrus_surinamensis/Hansenochrus_surinamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hansenochrus surinamensis est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Suriname[1]. Elle se rencontre vers Dirkshoop.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Suriname. Elle se rencontre vers Dirkshoop.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de surinam et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Suriname.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Remy, 1961 : Sur l'écologie des Schizomides (Arachn. Uropyges) de mes récoltes, avec description de trois Schizomus nouveaux, capturés par J. van der Drift au Surinam. Bulletin du Muséum National d'Histoire Naturelle, Paris, sér. 2, vol. 33, no 4, p. 500-511 (texte intégral).</t>
         </is>
